--- a/FrontEnd/Data/all_jockeys_cleaned.xlsx
+++ b/FrontEnd/Data/all_jockeys_cleaned.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhernieevangelista/Desktop/ClassRepos/Off_to_the_Races/FrontEnd/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364B9A2F-EE5D-4D4C-9A7E-7E214B672776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A190E1-6C0B-C74E-B089-BC98C30FA766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="-19900" windowWidth="28400" windowHeight="16320" activeTab="1" xr2:uid="{1625ACFF-A510-492D-B497-65907A265581}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Jockeys" sheetId="1" r:id="rId1"/>
-    <sheet name="Andre_weight_flux" sheetId="2" r:id="rId2"/>
-    <sheet name="eric_weight_flux" sheetId="3" r:id="rId3"/>
-    <sheet name="joel_weight_flux" sheetId="4" r:id="rId4"/>
-    <sheet name="manuel_weight_flux" sheetId="5" r:id="rId5"/>
-    <sheet name="reylu_weight_flux" sheetId="6" r:id="rId6"/>
+    <sheet name="All_Jockeys_Weight_Flux" sheetId="7" r:id="rId2"/>
+    <sheet name="Andre_weight_flux" sheetId="2" r:id="rId3"/>
+    <sheet name="eric_weight_flux" sheetId="3" r:id="rId4"/>
+    <sheet name="joel_weight_flux" sheetId="4" r:id="rId5"/>
+    <sheet name="manuel_weight_flux" sheetId="5" r:id="rId6"/>
+    <sheet name="reylu_weight_flux" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Andre_weight_flux!$A$1:$C$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">eric_weight_flux!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">joel_weight_flux!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Andre_weight_flux!$A$1:$C$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">eric_weight_flux!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">joel_weight_flux!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="79">
   <si>
     <t>Joel Rosario</t>
   </si>
@@ -278,11 +279,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="168" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -338,7 +340,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -352,13 +354,28 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -949,11 +966,7393 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127A4919-9E67-4C4F-ABFF-251684E74964}">
+  <dimension ref="A1:C669"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="E321" sqref="E321"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9">
+        <v>43466</v>
+      </c>
+      <c r="C2" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43469</v>
+      </c>
+      <c r="C3" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="9">
+        <v>43471</v>
+      </c>
+      <c r="C4" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9">
+        <v>43477</v>
+      </c>
+      <c r="C5" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9">
+        <v>43478</v>
+      </c>
+      <c r="C6" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="9">
+        <v>43484</v>
+      </c>
+      <c r="C7" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9">
+        <v>43485</v>
+      </c>
+      <c r="C8" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="9">
+        <v>43490</v>
+      </c>
+      <c r="C9" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9">
+        <v>43497</v>
+      </c>
+      <c r="C10" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="9">
+        <v>43499</v>
+      </c>
+      <c r="C11" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9">
+        <v>43503</v>
+      </c>
+      <c r="C12" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="9">
+        <v>43504</v>
+      </c>
+      <c r="C13" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9">
+        <v>43511</v>
+      </c>
+      <c r="C14" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="9">
+        <v>43512</v>
+      </c>
+      <c r="C15" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="9">
+        <v>43518</v>
+      </c>
+      <c r="C16" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="9">
+        <v>43520</v>
+      </c>
+      <c r="C17" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9">
+        <v>43524</v>
+      </c>
+      <c r="C18" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="9">
+        <v>43525</v>
+      </c>
+      <c r="C19" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="9">
+        <v>43526</v>
+      </c>
+      <c r="C20" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="9">
+        <v>43527</v>
+      </c>
+      <c r="C21" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="9">
+        <v>43532</v>
+      </c>
+      <c r="C22" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9">
+        <v>43533</v>
+      </c>
+      <c r="C23" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="9">
+        <v>43534</v>
+      </c>
+      <c r="C24" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <v>43539</v>
+      </c>
+      <c r="C25" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9">
+        <v>43540</v>
+      </c>
+      <c r="C26" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="9">
+        <v>43547</v>
+      </c>
+      <c r="C27" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="9">
+        <v>43548</v>
+      </c>
+      <c r="C28" s="8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="9">
+        <v>43553</v>
+      </c>
+      <c r="C29" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="9">
+        <v>43554</v>
+      </c>
+      <c r="C30" s="8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="9">
+        <v>43555</v>
+      </c>
+      <c r="C31" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="9">
+        <v>43560</v>
+      </c>
+      <c r="C32" s="8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="9">
+        <v>43561</v>
+      </c>
+      <c r="C33" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="9">
+        <v>43562</v>
+      </c>
+      <c r="C34" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="9">
+        <v>43567</v>
+      </c>
+      <c r="C35" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="9">
+        <v>43569</v>
+      </c>
+      <c r="C36" s="8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="9">
+        <v>43658</v>
+      </c>
+      <c r="C37" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="9">
+        <v>43687</v>
+      </c>
+      <c r="C38" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="9">
+        <v>43693</v>
+      </c>
+      <c r="C39" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="9">
+        <v>43706</v>
+      </c>
+      <c r="C40" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="9">
+        <v>43804</v>
+      </c>
+      <c r="C41" s="8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="9">
+        <v>43805</v>
+      </c>
+      <c r="C42" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="9">
+        <v>43807</v>
+      </c>
+      <c r="C43" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="9">
+        <v>43811</v>
+      </c>
+      <c r="C44" s="8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43812</v>
+      </c>
+      <c r="C45" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="9">
+        <v>43813</v>
+      </c>
+      <c r="C46" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="9">
+        <v>43819</v>
+      </c>
+      <c r="C47" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="9">
+        <v>43820</v>
+      </c>
+      <c r="C48" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="9">
+        <v>43821</v>
+      </c>
+      <c r="C49" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="9">
+        <v>43827</v>
+      </c>
+      <c r="C50" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="7">
+        <v>43829</v>
+      </c>
+      <c r="C51" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="7">
+        <v>43466</v>
+      </c>
+      <c r="C52">
+        <v>120.905944319036</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="7">
+        <v>43469</v>
+      </c>
+      <c r="C53">
+        <v>119.71530479896199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="7">
+        <v>43470</v>
+      </c>
+      <c r="C54">
+        <v>121.451398135818</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="7">
+        <v>43471</v>
+      </c>
+      <c r="C55">
+        <v>121.159517426273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="7">
+        <v>43475</v>
+      </c>
+      <c r="C56">
+        <v>123.80158730158701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="7">
+        <v>43476</v>
+      </c>
+      <c r="C57">
+        <v>123.70016750418699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="7">
+        <v>43477</v>
+      </c>
+      <c r="C58">
+        <v>122.527573529411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="7">
+        <v>43478</v>
+      </c>
+      <c r="C59">
+        <v>122.409116175653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="7">
+        <v>43483</v>
+      </c>
+      <c r="C60">
+        <v>123.344416562107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="7">
+        <v>43484</v>
+      </c>
+      <c r="C61">
+        <v>122.138690861957</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="7">
+        <v>43485</v>
+      </c>
+      <c r="C62">
+        <v>121.49302788844599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="7">
+        <v>43490</v>
+      </c>
+      <c r="C63">
+        <v>122.601879699248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="7">
+        <v>43491</v>
+      </c>
+      <c r="C64">
+        <v>122.227324263038</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="7">
+        <v>43492</v>
+      </c>
+      <c r="C65">
+        <v>122.88829787234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="7">
+        <v>43497</v>
+      </c>
+      <c r="C66">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="7">
+        <v>43498</v>
+      </c>
+      <c r="C67">
+        <v>121.648205928237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="7">
+        <v>43499</v>
+      </c>
+      <c r="C68">
+        <v>119.81253497481801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="7">
+        <v>43503</v>
+      </c>
+      <c r="C69">
+        <v>120.93950709484599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7">
+        <v>43504</v>
+      </c>
+      <c r="C70">
+        <v>119.85714285714199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="7">
+        <v>43505</v>
+      </c>
+      <c r="C71">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="7">
+        <v>43506</v>
+      </c>
+      <c r="C72">
+        <v>121.01945525291799</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="7">
+        <v>43511</v>
+      </c>
+      <c r="C73">
+        <v>120.00130378096399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="7">
+        <v>43512</v>
+      </c>
+      <c r="C74">
+        <v>121.449723247232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="7">
+        <v>43513</v>
+      </c>
+      <c r="C75">
+        <v>121.609394313967</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="7">
+        <v>43514</v>
+      </c>
+      <c r="C76">
+        <v>120.59967051070799</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="7">
+        <v>43517</v>
+      </c>
+      <c r="C77">
+        <v>120.749542961608</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="7">
+        <v>43518</v>
+      </c>
+      <c r="C78">
+        <v>122.123089983022</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="7">
+        <v>43520</v>
+      </c>
+      <c r="C79">
+        <v>121.97306791569</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="7">
+        <v>43524</v>
+      </c>
+      <c r="C80">
+        <v>121.98994734322601</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="7">
+        <v>43525</v>
+      </c>
+      <c r="C81">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="7">
+        <v>43526</v>
+      </c>
+      <c r="C82">
+        <v>121.90262751159101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="7">
+        <v>43527</v>
+      </c>
+      <c r="C83">
+        <v>119.754422476586</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="7">
+        <v>43532</v>
+      </c>
+      <c r="C84">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="7">
+        <v>43533</v>
+      </c>
+      <c r="C85">
+        <v>118.714285714285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="7">
+        <v>43534</v>
+      </c>
+      <c r="C86">
+        <v>120.792997542997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="7">
+        <v>43539</v>
+      </c>
+      <c r="C87">
+        <v>121.348827470686</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="7">
+        <v>43540</v>
+      </c>
+      <c r="C88">
+        <v>120.101076762764</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="7">
+        <v>43541</v>
+      </c>
+      <c r="C89">
+        <v>119.42962962962901</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="7">
+        <v>43546</v>
+      </c>
+      <c r="C90">
+        <v>120.50792864221999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="7">
+        <v>43547</v>
+      </c>
+      <c r="C91">
+        <v>121.858285714285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="7">
+        <v>43548</v>
+      </c>
+      <c r="C92">
+        <v>120.646518375241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="7">
+        <v>43553</v>
+      </c>
+      <c r="C93">
+        <v>123.512161223071</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="7">
+        <v>43554</v>
+      </c>
+      <c r="C94">
+        <v>121.895933014354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="7">
+        <v>43555</v>
+      </c>
+      <c r="C95">
+        <v>119.34064594759199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="7">
+        <v>43560</v>
+      </c>
+      <c r="C96">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="7">
+        <v>43561</v>
+      </c>
+      <c r="C97">
+        <v>120.4618491921</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="7">
+        <v>43562</v>
+      </c>
+      <c r="C98">
+        <v>121.546917942677</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="7">
+        <v>43565</v>
+      </c>
+      <c r="C99">
+        <v>119.78108395324099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="7">
+        <v>43566</v>
+      </c>
+      <c r="C100">
+        <v>120.915912031047</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="7">
+        <v>43567</v>
+      </c>
+      <c r="C101">
+        <v>120.041630529054</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="7">
+        <v>43568</v>
+      </c>
+      <c r="C102">
+        <v>120.666666666666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="7">
+        <v>43569</v>
+      </c>
+      <c r="C103">
+        <v>120.920293951384</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="7">
+        <v>43572</v>
+      </c>
+      <c r="C104">
+        <v>122.345932094811</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="7">
+        <v>43573</v>
+      </c>
+      <c r="C105">
+        <v>122.725983236621</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="7">
+        <v>43574</v>
+      </c>
+      <c r="C106">
+        <v>118.818696883852</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="7">
+        <v>43575</v>
+      </c>
+      <c r="C107">
+        <v>120.81081081081</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="7">
+        <v>43581</v>
+      </c>
+      <c r="C108">
+        <v>120.860465116279</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="7">
+        <v>43582</v>
+      </c>
+      <c r="C109">
+        <v>121.130467012601</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="7">
+        <v>43583</v>
+      </c>
+      <c r="C110">
+        <v>120.409815436241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="7">
+        <v>43587</v>
+      </c>
+      <c r="C111">
+        <v>120.332820906994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="7">
+        <v>43588</v>
+      </c>
+      <c r="C112">
+        <v>120.20744680851</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="7">
+        <v>43589</v>
+      </c>
+      <c r="C113">
+        <v>119.190239353434</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="7">
+        <v>43590</v>
+      </c>
+      <c r="C114">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="7">
+        <v>43594</v>
+      </c>
+      <c r="C115">
+        <v>120.27528089887601</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="7">
+        <v>43595</v>
+      </c>
+      <c r="C116">
+        <v>123.48177496037999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="7">
+        <v>43596</v>
+      </c>
+      <c r="C117">
+        <v>117.270320197044</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="7">
+        <v>43597</v>
+      </c>
+      <c r="C118">
+        <v>119.682777399591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="7">
+        <v>43601</v>
+      </c>
+      <c r="C119">
+        <v>121.082835183603</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="7">
+        <v>43602</v>
+      </c>
+      <c r="C120">
+        <v>118.91234756097499</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="7">
+        <v>43603</v>
+      </c>
+      <c r="C121">
+        <v>121.214647887323</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="7">
+        <v>43610</v>
+      </c>
+      <c r="C122">
+        <v>120.893514811849</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="7">
+        <v>43611</v>
+      </c>
+      <c r="C123">
+        <v>121.60294117647</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="7">
+        <v>43612</v>
+      </c>
+      <c r="C124">
+        <v>117.70871559632999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="7">
+        <v>43615</v>
+      </c>
+      <c r="C125">
+        <v>120.32788798132999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="7">
+        <v>43616</v>
+      </c>
+      <c r="C126">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="7">
+        <v>43617</v>
+      </c>
+      <c r="C127">
+        <v>122.123076923076</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="7">
+        <v>43618</v>
+      </c>
+      <c r="C128">
+        <v>122.34092346616001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="7">
+        <v>43622</v>
+      </c>
+      <c r="C129">
+        <v>118.743295019157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="7">
+        <v>43623</v>
+      </c>
+      <c r="C130">
+        <v>118.984881209503</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="7">
+        <v>43624</v>
+      </c>
+      <c r="C131">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="7">
+        <v>43625</v>
+      </c>
+      <c r="C132">
+        <v>120.11000621504</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="7">
+        <v>43628</v>
+      </c>
+      <c r="C133">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="7">
+        <v>43629</v>
+      </c>
+      <c r="C134">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="7">
+        <v>43630</v>
+      </c>
+      <c r="C135">
+        <v>121.07049608355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="7">
+        <v>43631</v>
+      </c>
+      <c r="C136">
+        <v>121.935691318327</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="7">
+        <v>43632</v>
+      </c>
+      <c r="C137">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="7">
+        <v>43636</v>
+      </c>
+      <c r="C138">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="7">
+        <v>43637</v>
+      </c>
+      <c r="C139">
+        <v>122.788861180382</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="7">
+        <v>43638</v>
+      </c>
+      <c r="C140">
+        <v>120.14482378854601</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="7">
+        <v>43639</v>
+      </c>
+      <c r="C141">
+        <v>119.28468899521501</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="7">
+        <v>43642</v>
+      </c>
+      <c r="C142">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="7">
+        <v>43643</v>
+      </c>
+      <c r="C143">
+        <v>122.09264069264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="7">
+        <v>43644</v>
+      </c>
+      <c r="C144">
+        <v>120.53547776726499</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="7">
+        <v>43645</v>
+      </c>
+      <c r="C145">
+        <v>123.996040723981</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="7">
+        <v>43646</v>
+      </c>
+      <c r="C146">
+        <v>120.943109987357</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="7">
+        <v>43649</v>
+      </c>
+      <c r="C147">
+        <v>120.544802867383</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="7">
+        <v>43651</v>
+      </c>
+      <c r="C148">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="7">
+        <v>43652</v>
+      </c>
+      <c r="C149">
+        <v>117.106267029972</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="7">
+        <v>43653</v>
+      </c>
+      <c r="C150">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="7">
+        <v>43657</v>
+      </c>
+      <c r="C151">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="7">
+        <v>43658</v>
+      </c>
+      <c r="C152">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="7">
+        <v>43659</v>
+      </c>
+      <c r="C153">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="7">
+        <v>43660</v>
+      </c>
+      <c r="C154">
+        <v>122.74786324786299</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="7">
+        <v>43663</v>
+      </c>
+      <c r="C155">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="7">
+        <v>43664</v>
+      </c>
+      <c r="C156">
+        <v>120.022522522522</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" s="7">
+        <v>43665</v>
+      </c>
+      <c r="C157">
+        <v>119.74278215223001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" s="7">
+        <v>43672</v>
+      </c>
+      <c r="C158">
+        <v>120.225602027883</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="7">
+        <v>43673</v>
+      </c>
+      <c r="C159">
+        <v>121.31428571428501</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="7">
+        <v>43674</v>
+      </c>
+      <c r="C160">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="7">
+        <v>43677</v>
+      </c>
+      <c r="C161">
+        <v>119.897590361445</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="7">
+        <v>43678</v>
+      </c>
+      <c r="C162">
+        <v>119.685425685425</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="7">
+        <v>43680</v>
+      </c>
+      <c r="C163">
+        <v>123.184466019417</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="7">
+        <v>43681</v>
+      </c>
+      <c r="C164">
+        <v>120.84023668639</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="7">
+        <v>43684</v>
+      </c>
+      <c r="C165">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="7">
+        <v>43685</v>
+      </c>
+      <c r="C166">
+        <v>119.577806122448</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="7">
+        <v>43686</v>
+      </c>
+      <c r="C167">
+        <v>118.239130434782</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" s="7">
+        <v>43687</v>
+      </c>
+      <c r="C168">
+        <v>122.089285714285</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="7">
+        <v>43688</v>
+      </c>
+      <c r="C169">
+        <v>120.857000993048</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" s="7">
+        <v>43691</v>
+      </c>
+      <c r="C170">
+        <v>122.60958904109501</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="7">
+        <v>43692</v>
+      </c>
+      <c r="C171">
+        <v>121.23613086770899</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" s="7">
+        <v>43693</v>
+      </c>
+      <c r="C172">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="7">
+        <v>43694</v>
+      </c>
+      <c r="C173">
+        <v>122.178094390026</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="7">
+        <v>43698</v>
+      </c>
+      <c r="C174">
+        <v>119.51520572450799</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="7">
+        <v>43699</v>
+      </c>
+      <c r="C175">
+        <v>119.055437100213</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" s="7">
+        <v>43700</v>
+      </c>
+      <c r="C176">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" s="7">
+        <v>43701</v>
+      </c>
+      <c r="C177">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="7">
+        <v>43702</v>
+      </c>
+      <c r="C178">
+        <v>121.704918032786</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" s="7">
+        <v>43705</v>
+      </c>
+      <c r="C179">
+        <v>119.94897959183599</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" s="7">
+        <v>43706</v>
+      </c>
+      <c r="C180">
+        <v>120.384615384615</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181" s="7">
+        <v>43707</v>
+      </c>
+      <c r="C181">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182" s="7">
+        <v>43708</v>
+      </c>
+      <c r="C182">
+        <v>123.142857142857</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" s="7">
+        <v>43709</v>
+      </c>
+      <c r="C183">
+        <v>120.944071588366</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="7">
+        <v>43710</v>
+      </c>
+      <c r="C184">
+        <v>121.224469160768</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" s="7">
+        <v>43714</v>
+      </c>
+      <c r="C185">
+        <v>119.943781942078</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="7">
+        <v>43715</v>
+      </c>
+      <c r="C186">
+        <v>119.98927875243599</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="7">
+        <v>43716</v>
+      </c>
+      <c r="C187">
+        <v>122.37971872686801</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" s="7">
+        <v>43719</v>
+      </c>
+      <c r="C188">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="7">
+        <v>43720</v>
+      </c>
+      <c r="C189">
+        <v>120.41289437585699</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="7">
+        <v>43721</v>
+      </c>
+      <c r="C190">
+        <v>121.29938542581201</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" s="7">
+        <v>43722</v>
+      </c>
+      <c r="C191">
+        <v>120.527936145952</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="7">
+        <v>43723</v>
+      </c>
+      <c r="C192">
+        <v>121.176917236142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>1</v>
+      </c>
+      <c r="B193" s="7">
+        <v>43726</v>
+      </c>
+      <c r="C193">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194" s="7">
+        <v>43727</v>
+      </c>
+      <c r="C194">
+        <v>121.821917808219</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="7">
+        <v>43728</v>
+      </c>
+      <c r="C195">
+        <v>120.333333333333</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="7">
+        <v>43730</v>
+      </c>
+      <c r="C196">
+        <v>120.59656652360501</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197" s="7">
+        <v>43733</v>
+      </c>
+      <c r="C197">
+        <v>120.47430830039499</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198" s="7">
+        <v>43734</v>
+      </c>
+      <c r="C198">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" s="7">
+        <v>43735</v>
+      </c>
+      <c r="C199">
+        <v>120.899148657498</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="7">
+        <v>43736</v>
+      </c>
+      <c r="C200">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201" s="7">
+        <v>43737</v>
+      </c>
+      <c r="C201">
+        <v>121.92983808789501</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" s="7">
+        <v>43740</v>
+      </c>
+      <c r="C202">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>1</v>
+      </c>
+      <c r="B203" s="7">
+        <v>43741</v>
+      </c>
+      <c r="C203">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>1</v>
+      </c>
+      <c r="B204" s="7">
+        <v>43742</v>
+      </c>
+      <c r="C204">
+        <v>122.322677322677</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" s="7">
+        <v>43743</v>
+      </c>
+      <c r="C205">
+        <v>120.916330063473</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>1</v>
+      </c>
+      <c r="B206" s="7">
+        <v>43744</v>
+      </c>
+      <c r="C206">
+        <v>120.25035663337999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207" s="7">
+        <v>43748</v>
+      </c>
+      <c r="C207">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" s="7">
+        <v>43749</v>
+      </c>
+      <c r="C208">
+        <v>119.55837563451701</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>1</v>
+      </c>
+      <c r="B209" s="7">
+        <v>43750</v>
+      </c>
+      <c r="C209">
+        <v>120.292735042735</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" s="7">
+        <v>43751</v>
+      </c>
+      <c r="C210">
+        <v>121.530172413793</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="7">
+        <v>43752</v>
+      </c>
+      <c r="C211">
+        <v>119.41237113402001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" s="7">
+        <v>43754</v>
+      </c>
+      <c r="C212">
+        <v>121.22571428571401</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" s="7">
+        <v>43756</v>
+      </c>
+      <c r="C213">
+        <v>120.31217677479999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>1</v>
+      </c>
+      <c r="B214" s="7">
+        <v>43757</v>
+      </c>
+      <c r="C214">
+        <v>119.650049850448</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" s="7">
+        <v>43758</v>
+      </c>
+      <c r="C215">
+        <v>122.953020134228</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" s="7">
+        <v>43762</v>
+      </c>
+      <c r="C216">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" s="7">
+        <v>43763</v>
+      </c>
+      <c r="C217">
+        <v>120.652017937219</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218" s="7">
+        <v>43764</v>
+      </c>
+      <c r="C218">
+        <v>121.40588235294101</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" s="7">
+        <v>43765</v>
+      </c>
+      <c r="C219">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" s="7">
+        <v>43770</v>
+      </c>
+      <c r="C220">
+        <v>119.473554735547</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" s="7">
+        <v>43771</v>
+      </c>
+      <c r="C221">
+        <v>120.86002014098599</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="7">
+        <v>43772</v>
+      </c>
+      <c r="C222">
+        <v>120.333963453056</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" s="7">
+        <v>43776</v>
+      </c>
+      <c r="C223">
+        <v>118.997896950578</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>1</v>
+      </c>
+      <c r="B224" s="7">
+        <v>43777</v>
+      </c>
+      <c r="C224">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" s="7">
+        <v>43778</v>
+      </c>
+      <c r="C225">
+        <v>120.257887517146</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="7">
+        <v>43779</v>
+      </c>
+      <c r="C226">
+        <v>120.007201152184</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" s="7">
+        <v>43780</v>
+      </c>
+      <c r="C227">
+        <v>120.495475113122</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" s="7">
+        <v>43784</v>
+      </c>
+      <c r="C228">
+        <v>120.388526119402</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" s="7">
+        <v>43785</v>
+      </c>
+      <c r="C229">
+        <v>120.167852062588</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" s="7">
+        <v>43786</v>
+      </c>
+      <c r="C230">
+        <v>121.252242744063</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" s="7">
+        <v>43789</v>
+      </c>
+      <c r="C231">
+        <v>121.280112044817</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" s="7">
+        <v>43790</v>
+      </c>
+      <c r="C232">
+        <v>121.513497652582</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" s="7">
+        <v>43791</v>
+      </c>
+      <c r="C233">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" s="7">
+        <v>43792</v>
+      </c>
+      <c r="C234">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235" s="7">
+        <v>43793</v>
+      </c>
+      <c r="C235">
+        <v>120.52</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>1</v>
+      </c>
+      <c r="B236" s="7">
+        <v>43796</v>
+      </c>
+      <c r="C236">
+        <v>121.41490857946501</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="7">
+        <v>43798</v>
+      </c>
+      <c r="C237">
+        <v>120.079822616407</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>1</v>
+      </c>
+      <c r="B238" s="7">
+        <v>43799</v>
+      </c>
+      <c r="C238">
+        <v>119.491111111111</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>1</v>
+      </c>
+      <c r="B239" s="7">
+        <v>43800</v>
+      </c>
+      <c r="C239">
+        <v>121.351313969571</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>1</v>
+      </c>
+      <c r="B240" s="7">
+        <v>43804</v>
+      </c>
+      <c r="C240">
+        <v>119.50397877984</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>1</v>
+      </c>
+      <c r="B241" s="7">
+        <v>43805</v>
+      </c>
+      <c r="C241">
+        <v>119.520065520065</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" s="7">
+        <v>43806</v>
+      </c>
+      <c r="C242">
+        <v>119.247048138056</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>1</v>
+      </c>
+      <c r="B243" s="7">
+        <v>43807</v>
+      </c>
+      <c r="C243">
+        <v>120.417716204869</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" s="7">
+        <v>43811</v>
+      </c>
+      <c r="C244">
+        <v>120.80684596576999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" s="7">
+        <v>43812</v>
+      </c>
+      <c r="C245">
+        <v>120.24166666666601</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" s="7">
+        <v>43813</v>
+      </c>
+      <c r="C246">
+        <v>121.478130841121</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>1</v>
+      </c>
+      <c r="B247" s="7">
+        <v>43814</v>
+      </c>
+      <c r="C247">
+        <v>121.30545062061501</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>1</v>
+      </c>
+      <c r="B248" s="7">
+        <v>43819</v>
+      </c>
+      <c r="C248">
+        <v>123.540754716981</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>1</v>
+      </c>
+      <c r="B249" s="7">
+        <v>43820</v>
+      </c>
+      <c r="C249">
+        <v>121.950969213226</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>1</v>
+      </c>
+      <c r="B250" s="7">
+        <v>43821</v>
+      </c>
+      <c r="C250">
+        <v>119.67448574521801</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>1</v>
+      </c>
+      <c r="B251" s="7">
+        <v>43827</v>
+      </c>
+      <c r="C251">
+        <v>121.18991228070099</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>1</v>
+      </c>
+      <c r="B252" s="7">
+        <v>43828</v>
+      </c>
+      <c r="C252">
+        <v>119.92515274949</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>1</v>
+      </c>
+      <c r="B253" s="7">
+        <v>43829</v>
+      </c>
+      <c r="C253">
+        <v>121.947089947089</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>1</v>
+      </c>
+      <c r="B254" s="7">
+        <v>43830</v>
+      </c>
+      <c r="C254">
+        <v>120.468418110676</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B255" s="7">
+        <v>43582</v>
+      </c>
+      <c r="C255">
+        <v>120.89449886963</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>0</v>
+      </c>
+      <c r="B256" s="7">
+        <v>43583</v>
+      </c>
+      <c r="C256">
+        <v>120.077025232403</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257" s="7">
+        <v>43590</v>
+      </c>
+      <c r="C257">
+        <v>120.58752166377801</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" s="7">
+        <v>43594</v>
+      </c>
+      <c r="C258">
+        <v>120.321848739495</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>0</v>
+      </c>
+      <c r="B259" s="7">
+        <v>43595</v>
+      </c>
+      <c r="C259">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>0</v>
+      </c>
+      <c r="B260" s="7">
+        <v>43596</v>
+      </c>
+      <c r="C260">
+        <v>120.924829157175</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>0</v>
+      </c>
+      <c r="B261" s="7">
+        <v>43597</v>
+      </c>
+      <c r="C261">
+        <v>120.415036045314</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>0</v>
+      </c>
+      <c r="B262" s="7">
+        <v>43601</v>
+      </c>
+      <c r="C262">
+        <v>122.42796967144</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>0</v>
+      </c>
+      <c r="B263" s="7">
+        <v>43604</v>
+      </c>
+      <c r="C263">
+        <v>120.43256498283399</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>0</v>
+      </c>
+      <c r="B264" s="7">
+        <v>43608</v>
+      </c>
+      <c r="C264">
+        <v>119.94140625</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" s="7">
+        <v>43609</v>
+      </c>
+      <c r="C265">
+        <v>120.482332155477</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266" s="7">
+        <v>43610</v>
+      </c>
+      <c r="C266">
+        <v>118.7812700449</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267" s="7">
+        <v>43611</v>
+      </c>
+      <c r="C267">
+        <v>119.618923611111</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B268" s="7">
+        <v>43615</v>
+      </c>
+      <c r="C268">
+        <v>120.433004231311</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>0</v>
+      </c>
+      <c r="B269" s="7">
+        <v>43616</v>
+      </c>
+      <c r="C269">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>0</v>
+      </c>
+      <c r="B270" s="7">
+        <v>43617</v>
+      </c>
+      <c r="C270">
+        <v>122.12494929006</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B271" s="7">
+        <v>43618</v>
+      </c>
+      <c r="C271">
+        <v>120.39626168224299</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>0</v>
+      </c>
+      <c r="B272" s="7">
+        <v>43622</v>
+      </c>
+      <c r="C272">
+        <v>120.897545357524</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B273" s="7">
+        <v>43623</v>
+      </c>
+      <c r="C273">
+        <v>119.3365285861</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>0</v>
+      </c>
+      <c r="B274" s="7">
+        <v>43624</v>
+      </c>
+      <c r="C274">
+        <v>122.73556304138501</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>0</v>
+      </c>
+      <c r="B275" s="7">
+        <v>43625</v>
+      </c>
+      <c r="C275">
+        <v>120.66103484688399</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>0</v>
+      </c>
+      <c r="B276" s="7">
+        <v>43628</v>
+      </c>
+      <c r="C276">
+        <v>118.94</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277" s="7">
+        <v>43629</v>
+      </c>
+      <c r="C277">
+        <v>121.648016701461</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278" s="7">
+        <v>43630</v>
+      </c>
+      <c r="C278">
+        <v>120.87608613524699</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>0</v>
+      </c>
+      <c r="B279" s="7">
+        <v>43632</v>
+      </c>
+      <c r="C279">
+        <v>121.543670264965</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>0</v>
+      </c>
+      <c r="B280" s="7">
+        <v>43635</v>
+      </c>
+      <c r="C280">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" s="7">
+        <v>43636</v>
+      </c>
+      <c r="C281">
+        <v>122.18791500664</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>0</v>
+      </c>
+      <c r="B282" s="7">
+        <v>43638</v>
+      </c>
+      <c r="C282">
+        <v>121.795966386554</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283" s="7">
+        <v>43639</v>
+      </c>
+      <c r="C283">
+        <v>119.437131630648</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>0</v>
+      </c>
+      <c r="B284" s="7">
+        <v>43642</v>
+      </c>
+      <c r="C284">
+        <v>120.509615384615</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>0</v>
+      </c>
+      <c r="B285" s="7">
+        <v>43643</v>
+      </c>
+      <c r="C285">
+        <v>120.810732113144</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>0</v>
+      </c>
+      <c r="B286" s="7">
+        <v>43644</v>
+      </c>
+      <c r="C286">
+        <v>122.738768718801</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>0</v>
+      </c>
+      <c r="B287" s="7">
+        <v>43645</v>
+      </c>
+      <c r="C287">
+        <v>119.747783251231</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>0</v>
+      </c>
+      <c r="B288" s="7">
+        <v>43646</v>
+      </c>
+      <c r="C288">
+        <v>119.630769230769</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>0</v>
+      </c>
+      <c r="B289" s="7">
+        <v>43649</v>
+      </c>
+      <c r="C289">
+        <v>121.768372703412</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>0</v>
+      </c>
+      <c r="B290" s="7">
+        <v>43650</v>
+      </c>
+      <c r="C290">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>0</v>
+      </c>
+      <c r="B291" s="7">
+        <v>43651</v>
+      </c>
+      <c r="C291">
+        <v>121.851485148514</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>0</v>
+      </c>
+      <c r="B292" s="7">
+        <v>43652</v>
+      </c>
+      <c r="C292">
+        <v>120.493638676844</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>0</v>
+      </c>
+      <c r="B293" s="7">
+        <v>43653</v>
+      </c>
+      <c r="C293">
+        <v>119.96834264432</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>0</v>
+      </c>
+      <c r="B294" s="7">
+        <v>43657</v>
+      </c>
+      <c r="C294">
+        <v>119.86772315653199</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>0</v>
+      </c>
+      <c r="B295" s="7">
+        <v>43658</v>
+      </c>
+      <c r="C295">
+        <v>121.581685296646</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>0</v>
+      </c>
+      <c r="B296" s="7">
+        <v>43660</v>
+      </c>
+      <c r="C296">
+        <v>121.247016087182</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>0</v>
+      </c>
+      <c r="B297" s="7">
+        <v>43663</v>
+      </c>
+      <c r="C297">
+        <v>119.521031968592</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>0</v>
+      </c>
+      <c r="B298" s="7">
+        <v>43664</v>
+      </c>
+      <c r="C298">
+        <v>119.484901531728</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>0</v>
+      </c>
+      <c r="B299" s="7">
+        <v>43665</v>
+      </c>
+      <c r="C299">
+        <v>120.49339933993301</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>0</v>
+      </c>
+      <c r="B300" s="7">
+        <v>43667</v>
+      </c>
+      <c r="C300">
+        <v>119.592286501377</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>0</v>
+      </c>
+      <c r="B301" s="7">
+        <v>43670</v>
+      </c>
+      <c r="C301">
+        <v>120.35370919881299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>0</v>
+      </c>
+      <c r="B302" s="7">
+        <v>43671</v>
+      </c>
+      <c r="C302">
+        <v>119.940418679549</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>0</v>
+      </c>
+      <c r="B303" s="7">
+        <v>43672</v>
+      </c>
+      <c r="C303">
+        <v>118.88702460850099</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>0</v>
+      </c>
+      <c r="B304" s="7">
+        <v>43673</v>
+      </c>
+      <c r="C304">
+        <v>120.69463493344</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>0</v>
+      </c>
+      <c r="B305" s="7">
+        <v>43674</v>
+      </c>
+      <c r="C305">
+        <v>121.647681451612</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>0</v>
+      </c>
+      <c r="B306" s="7">
+        <v>43677</v>
+      </c>
+      <c r="C306">
+        <v>119.44851833249599</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>0</v>
+      </c>
+      <c r="B307" s="7">
+        <v>43678</v>
+      </c>
+      <c r="C307">
+        <v>120.70154230929499</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>0</v>
+      </c>
+      <c r="B308" s="7">
+        <v>43679</v>
+      </c>
+      <c r="C308">
+        <v>123.515243902439</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>0</v>
+      </c>
+      <c r="B309" s="7">
+        <v>43680</v>
+      </c>
+      <c r="C309">
+        <v>120.700989208633</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>0</v>
+      </c>
+      <c r="B310" s="7">
+        <v>43681</v>
+      </c>
+      <c r="C310">
+        <v>120.538642473118</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>0</v>
+      </c>
+      <c r="B311" s="7">
+        <v>43684</v>
+      </c>
+      <c r="C311">
+        <v>119.94774657086801</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>0</v>
+      </c>
+      <c r="B312" s="7">
+        <v>43685</v>
+      </c>
+      <c r="C312">
+        <v>122.76336546888599</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>0</v>
+      </c>
+      <c r="B313" s="7">
+        <v>43686</v>
+      </c>
+      <c r="C313">
+        <v>122.894270122783</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>0</v>
+      </c>
+      <c r="B314" s="7">
+        <v>43687</v>
+      </c>
+      <c r="C314">
+        <v>120.544090056285</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>0</v>
+      </c>
+      <c r="B315" s="7">
+        <v>43688</v>
+      </c>
+      <c r="C315">
+        <v>118.891036906854</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>0</v>
+      </c>
+      <c r="B316" s="7">
+        <v>43691</v>
+      </c>
+      <c r="C316">
+        <v>121.02854778651199</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>0</v>
+      </c>
+      <c r="B317" s="7">
+        <v>43692</v>
+      </c>
+      <c r="C317">
+        <v>119.95234375</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>0</v>
+      </c>
+      <c r="B318" s="7">
+        <v>43693</v>
+      </c>
+      <c r="C318">
+        <v>120.08153580672899</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>0</v>
+      </c>
+      <c r="B319" s="7">
+        <v>43694</v>
+      </c>
+      <c r="C319">
+        <v>120.74079065588499</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>0</v>
+      </c>
+      <c r="B320" s="7">
+        <v>43695</v>
+      </c>
+      <c r="C320">
+        <v>122.75179856115101</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>0</v>
+      </c>
+      <c r="B321" s="7">
+        <v>43698</v>
+      </c>
+      <c r="C321">
+        <v>119.677944862155</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>0</v>
+      </c>
+      <c r="B322" s="7">
+        <v>43699</v>
+      </c>
+      <c r="C322">
+        <v>120.35749128919799</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>0</v>
+      </c>
+      <c r="B323" s="7">
+        <v>43700</v>
+      </c>
+      <c r="C323">
+        <v>119.608442503639</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>0</v>
+      </c>
+      <c r="B324" s="7">
+        <v>43701</v>
+      </c>
+      <c r="C324">
+        <v>121.413515687851</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>0</v>
+      </c>
+      <c r="B325" s="7">
+        <v>43702</v>
+      </c>
+      <c r="C325">
+        <v>119.669152542372</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>0</v>
+      </c>
+      <c r="B326" s="7">
+        <v>43705</v>
+      </c>
+      <c r="C326">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>0</v>
+      </c>
+      <c r="B327" s="7">
+        <v>43706</v>
+      </c>
+      <c r="C327">
+        <v>119.158232931726</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>0</v>
+      </c>
+      <c r="B328" s="7">
+        <v>43707</v>
+      </c>
+      <c r="C328">
+        <v>121.063772954924</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>0</v>
+      </c>
+      <c r="B329" s="7">
+        <v>43708</v>
+      </c>
+      <c r="C329">
+        <v>120.71602126044</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>0</v>
+      </c>
+      <c r="B330" s="7">
+        <v>43709</v>
+      </c>
+      <c r="C330">
+        <v>119.566652001759</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>0</v>
+      </c>
+      <c r="B331" s="7">
+        <v>43710</v>
+      </c>
+      <c r="C331">
+        <v>121.441947565543</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>0</v>
+      </c>
+      <c r="B332" s="7">
+        <v>43714</v>
+      </c>
+      <c r="C332">
+        <v>119.54564831261099</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>0</v>
+      </c>
+      <c r="B333" s="7">
+        <v>43716</v>
+      </c>
+      <c r="C333">
+        <v>119.70706700842101</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>0</v>
+      </c>
+      <c r="B334" s="7">
+        <v>43719</v>
+      </c>
+      <c r="C334">
+        <v>121.82144663631701</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>0</v>
+      </c>
+      <c r="B335" s="7">
+        <v>43721</v>
+      </c>
+      <c r="C335">
+        <v>120.498293515358</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>0</v>
+      </c>
+      <c r="B336" s="7">
+        <v>43723</v>
+      </c>
+      <c r="C336">
+        <v>120.05762543467399</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>0</v>
+      </c>
+      <c r="B337" s="7">
+        <v>43726</v>
+      </c>
+      <c r="C337">
+        <v>120.488555643251</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>0</v>
+      </c>
+      <c r="B338" s="7">
+        <v>43727</v>
+      </c>
+      <c r="C338">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>0</v>
+      </c>
+      <c r="B339" s="7">
+        <v>43728</v>
+      </c>
+      <c r="C339">
+        <v>122.013026052104</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>0</v>
+      </c>
+      <c r="B340" s="7">
+        <v>43730</v>
+      </c>
+      <c r="C340">
+        <v>121.730268510984</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>0</v>
+      </c>
+      <c r="B341" s="7">
+        <v>43733</v>
+      </c>
+      <c r="C341">
+        <v>121.833667334669</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>0</v>
+      </c>
+      <c r="B342" s="7">
+        <v>43734</v>
+      </c>
+      <c r="C342">
+        <v>122.030754892823</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>0</v>
+      </c>
+      <c r="B343" s="7">
+        <v>43736</v>
+      </c>
+      <c r="C343">
+        <v>120.118816930137</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>0</v>
+      </c>
+      <c r="B344" s="7">
+        <v>43737</v>
+      </c>
+      <c r="C344">
+        <v>120.577123050259</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B345" s="7">
+        <v>43740</v>
+      </c>
+      <c r="C345">
+        <v>121.996751740139</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>0</v>
+      </c>
+      <c r="B346" s="7">
+        <v>43741</v>
+      </c>
+      <c r="C346">
+        <v>120.564174894217</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>0</v>
+      </c>
+      <c r="B347" s="7">
+        <v>43744</v>
+      </c>
+      <c r="C347">
+        <v>120.85757884028401</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>0</v>
+      </c>
+      <c r="B348" s="7">
+        <v>43750</v>
+      </c>
+      <c r="C348">
+        <v>119.553401748384</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>0</v>
+      </c>
+      <c r="B349" s="7">
+        <v>43751</v>
+      </c>
+      <c r="C349">
+        <v>120.379111111111</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>0</v>
+      </c>
+      <c r="B350" s="7">
+        <v>43752</v>
+      </c>
+      <c r="C350">
+        <v>119.893203883495</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>0</v>
+      </c>
+      <c r="B351" s="7">
+        <v>43754</v>
+      </c>
+      <c r="C351">
+        <v>119.595238095238</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>0</v>
+      </c>
+      <c r="B352" s="7">
+        <v>43757</v>
+      </c>
+      <c r="C352">
+        <v>121.776136363636</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>0</v>
+      </c>
+      <c r="B353" s="7">
+        <v>43758</v>
+      </c>
+      <c r="C353">
+        <v>121.632945091514</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>0</v>
+      </c>
+      <c r="B354" s="7">
+        <v>43761</v>
+      </c>
+      <c r="C354">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>0</v>
+      </c>
+      <c r="B355" s="7">
+        <v>43763</v>
+      </c>
+      <c r="C355">
+        <v>120.34693877551</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>0</v>
+      </c>
+      <c r="B356" s="7">
+        <v>43765</v>
+      </c>
+      <c r="C356">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>0</v>
+      </c>
+      <c r="B357" s="7">
+        <v>43776</v>
+      </c>
+      <c r="C357">
+        <v>120.302752293577</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>0</v>
+      </c>
+      <c r="B358" s="7">
+        <v>43777</v>
+      </c>
+      <c r="C358">
+        <v>119.265034965034</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>0</v>
+      </c>
+      <c r="B359" s="7">
+        <v>43778</v>
+      </c>
+      <c r="C359">
+        <v>121.265625</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>0</v>
+      </c>
+      <c r="B360" s="7">
+        <v>43779</v>
+      </c>
+      <c r="C360">
+        <v>120.373243933588</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>0</v>
+      </c>
+      <c r="B361" s="7">
+        <v>43780</v>
+      </c>
+      <c r="C361">
+        <v>120.330275229357</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>0</v>
+      </c>
+      <c r="B362" s="7">
+        <v>43783</v>
+      </c>
+      <c r="C362">
+        <v>121.274842462433</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>0</v>
+      </c>
+      <c r="B363" s="7">
+        <v>43784</v>
+      </c>
+      <c r="C363">
+        <v>121.40391791044701</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>0</v>
+      </c>
+      <c r="B364" s="7">
+        <v>43785</v>
+      </c>
+      <c r="C364">
+        <v>119.921133492659</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>0</v>
+      </c>
+      <c r="B365" s="7">
+        <v>43786</v>
+      </c>
+      <c r="C365">
+        <v>119.98334149926499</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>0</v>
+      </c>
+      <c r="B366" s="7">
+        <v>43789</v>
+      </c>
+      <c r="C366">
+        <v>121.141598489616</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>0</v>
+      </c>
+      <c r="B367" s="7">
+        <v>43790</v>
+      </c>
+      <c r="C367">
+        <v>121.133040935672</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>0</v>
+      </c>
+      <c r="B368" s="7">
+        <v>43791</v>
+      </c>
+      <c r="C368">
+        <v>119.909677419354</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>0</v>
+      </c>
+      <c r="B369" s="7">
+        <v>43792</v>
+      </c>
+      <c r="C369">
+        <v>121.327127659574</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>0</v>
+      </c>
+      <c r="B370" s="7">
+        <v>43793</v>
+      </c>
+      <c r="C370">
+        <v>119.688878000979</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>0</v>
+      </c>
+      <c r="B371" s="7">
+        <v>43796</v>
+      </c>
+      <c r="C371">
+        <v>119.50723140495801</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>0</v>
+      </c>
+      <c r="B372" s="7">
+        <v>43799</v>
+      </c>
+      <c r="C372">
+        <v>121.326505016722</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>0</v>
+      </c>
+      <c r="B373" s="7">
+        <v>43800</v>
+      </c>
+      <c r="C373">
+        <v>120.871316306483</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>0</v>
+      </c>
+      <c r="B374" s="7">
+        <v>43804</v>
+      </c>
+      <c r="C374">
+        <v>119.972316658572</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>0</v>
+      </c>
+      <c r="B375" s="7">
+        <v>43805</v>
+      </c>
+      <c r="C375">
+        <v>121.93270821842199</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>0</v>
+      </c>
+      <c r="B376" s="7">
+        <v>43806</v>
+      </c>
+      <c r="C376">
+        <v>118.93764367816</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>0</v>
+      </c>
+      <c r="B377" s="7">
+        <v>43807</v>
+      </c>
+      <c r="C377">
+        <v>121.122935779816</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>2</v>
+      </c>
+      <c r="B378" s="7">
+        <v>43466</v>
+      </c>
+      <c r="C378">
+        <v>120.642826552462</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>2</v>
+      </c>
+      <c r="B379" s="7">
+        <v>43469</v>
+      </c>
+      <c r="C379">
+        <v>120.421585160202</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>2</v>
+      </c>
+      <c r="B380" s="7">
+        <v>43470</v>
+      </c>
+      <c r="C380">
+        <v>120.60308343409901</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>2</v>
+      </c>
+      <c r="B381" s="7">
+        <v>43471</v>
+      </c>
+      <c r="C381">
+        <v>120.34603028912299</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>2</v>
+      </c>
+      <c r="B382" s="7">
+        <v>43475</v>
+      </c>
+      <c r="C382">
+        <v>123.901515151515</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>2</v>
+      </c>
+      <c r="B383" s="7">
+        <v>43476</v>
+      </c>
+      <c r="C383">
+        <v>124.25877903835701</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>2</v>
+      </c>
+      <c r="B384" s="7">
+        <v>43477</v>
+      </c>
+      <c r="C384">
+        <v>122.360865724381</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>2</v>
+      </c>
+      <c r="B385" s="7">
+        <v>43478</v>
+      </c>
+      <c r="C385">
+        <v>122.469009272816</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>2</v>
+      </c>
+      <c r="B386" s="7">
+        <v>43483</v>
+      </c>
+      <c r="C386">
+        <v>122.261807363332</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>2</v>
+      </c>
+      <c r="B387" s="7">
+        <v>43484</v>
+      </c>
+      <c r="C387">
+        <v>122.30684931506801</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>2</v>
+      </c>
+      <c r="B388" s="7">
+        <v>43485</v>
+      </c>
+      <c r="C388">
+        <v>122.41732283464501</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>2</v>
+      </c>
+      <c r="B389" s="7">
+        <v>43490</v>
+      </c>
+      <c r="C389">
+        <v>122.399205202312</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>2</v>
+      </c>
+      <c r="B390" s="7">
+        <v>43491</v>
+      </c>
+      <c r="C390">
+        <v>122.865121474448</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>2</v>
+      </c>
+      <c r="B391" s="7">
+        <v>43492</v>
+      </c>
+      <c r="C391">
+        <v>122.31016563819399</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>2</v>
+      </c>
+      <c r="B392" s="7">
+        <v>43497</v>
+      </c>
+      <c r="C392">
+        <v>122.76213358962001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>2</v>
+      </c>
+      <c r="B393" s="7">
+        <v>43498</v>
+      </c>
+      <c r="C393">
+        <v>122.231707317073</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>2</v>
+      </c>
+      <c r="B394" s="7">
+        <v>43499</v>
+      </c>
+      <c r="C394">
+        <v>120.26287395782199</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>2</v>
+      </c>
+      <c r="B395" s="7">
+        <v>43503</v>
+      </c>
+      <c r="C395">
+        <v>120.646678966789</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>2</v>
+      </c>
+      <c r="B396" s="7">
+        <v>43504</v>
+      </c>
+      <c r="C396">
+        <v>120.575159605339</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>2</v>
+      </c>
+      <c r="B397" s="7">
+        <v>43505</v>
+      </c>
+      <c r="C397">
+        <v>121.680249632892</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>2</v>
+      </c>
+      <c r="B398" s="7">
+        <v>43506</v>
+      </c>
+      <c r="C398">
+        <v>123.117527450183</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>2</v>
+      </c>
+      <c r="B399" s="7">
+        <v>43511</v>
+      </c>
+      <c r="C399">
+        <v>121.30844954881</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>2</v>
+      </c>
+      <c r="B400" s="7">
+        <v>43513</v>
+      </c>
+      <c r="C400">
+        <v>121.524317912218</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>2</v>
+      </c>
+      <c r="B401" s="7">
+        <v>43514</v>
+      </c>
+      <c r="C401">
+        <v>120.722460101206</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>2</v>
+      </c>
+      <c r="B402" s="7">
+        <v>43517</v>
+      </c>
+      <c r="C402">
+        <v>120.71337817638199</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>2</v>
+      </c>
+      <c r="B403" s="7">
+        <v>43518</v>
+      </c>
+      <c r="C403">
+        <v>120.497950819672</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>2</v>
+      </c>
+      <c r="B404" s="7">
+        <v>43519</v>
+      </c>
+      <c r="C404">
+        <v>120.263281617301</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>2</v>
+      </c>
+      <c r="B405" s="7">
+        <v>43520</v>
+      </c>
+      <c r="C405">
+        <v>120.992518703241</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>2</v>
+      </c>
+      <c r="B406" s="7">
+        <v>43524</v>
+      </c>
+      <c r="C406">
+        <v>123.399380804953</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>2</v>
+      </c>
+      <c r="B407" s="7">
+        <v>43525</v>
+      </c>
+      <c r="C407">
+        <v>119.356651376146</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>2</v>
+      </c>
+      <c r="B408" s="7">
+        <v>43527</v>
+      </c>
+      <c r="C408">
+        <v>120.655615696887</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>2</v>
+      </c>
+      <c r="B409" s="7">
+        <v>43532</v>
+      </c>
+      <c r="C409">
+        <v>123.17616126205</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>2</v>
+      </c>
+      <c r="B410" s="7">
+        <v>43533</v>
+      </c>
+      <c r="C410">
+        <v>119.97674418604601</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>2</v>
+      </c>
+      <c r="B411" s="7">
+        <v>43534</v>
+      </c>
+      <c r="C411">
+        <v>122.023896448722</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>2</v>
+      </c>
+      <c r="B412" s="7">
+        <v>43539</v>
+      </c>
+      <c r="C412">
+        <v>120.52908726178499</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>2</v>
+      </c>
+      <c r="B413" s="7">
+        <v>43540</v>
+      </c>
+      <c r="C413">
+        <v>120.179051383399</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>2</v>
+      </c>
+      <c r="B414" s="7">
+        <v>43541</v>
+      </c>
+      <c r="C414">
+        <v>120.97014424689699</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>2</v>
+      </c>
+      <c r="B415" s="7">
+        <v>43546</v>
+      </c>
+      <c r="C415">
+        <v>121.03036876355699</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>2</v>
+      </c>
+      <c r="B416" s="7">
+        <v>43547</v>
+      </c>
+      <c r="C416">
+        <v>119.18314763231101</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>2</v>
+      </c>
+      <c r="B417" s="7">
+        <v>43548</v>
+      </c>
+      <c r="C417">
+        <v>120.108152396558</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>2</v>
+      </c>
+      <c r="B418" s="7">
+        <v>43553</v>
+      </c>
+      <c r="C418">
+        <v>120.24485891917701</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>2</v>
+      </c>
+      <c r="B419" s="7">
+        <v>43555</v>
+      </c>
+      <c r="C419">
+        <v>120.10007468259801</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>2</v>
+      </c>
+      <c r="B420" s="7">
+        <v>43560</v>
+      </c>
+      <c r="C420">
+        <v>122.10237388724001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>2</v>
+      </c>
+      <c r="B421" s="7">
+        <v>43561</v>
+      </c>
+      <c r="C421">
+        <v>121.61893852615501</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>2</v>
+      </c>
+      <c r="B422" s="7">
+        <v>43562</v>
+      </c>
+      <c r="C422">
+        <v>123.020869565217</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>2</v>
+      </c>
+      <c r="B423" s="7">
+        <v>43565</v>
+      </c>
+      <c r="C423">
+        <v>122.902483343428</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>2</v>
+      </c>
+      <c r="B424" s="7">
+        <v>43566</v>
+      </c>
+      <c r="C424">
+        <v>119.115754283326</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>2</v>
+      </c>
+      <c r="B425" s="7">
+        <v>43567</v>
+      </c>
+      <c r="C425">
+        <v>122.142064372918</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>2</v>
+      </c>
+      <c r="B426" s="7">
+        <v>43568</v>
+      </c>
+      <c r="C426">
+        <v>119.34074410163301</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>2</v>
+      </c>
+      <c r="B427" s="7">
+        <v>43569</v>
+      </c>
+      <c r="C427">
+        <v>118.271920482783</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>2</v>
+      </c>
+      <c r="B428" s="7">
+        <v>43572</v>
+      </c>
+      <c r="C428">
+        <v>120.90909090909</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>2</v>
+      </c>
+      <c r="B429" s="7">
+        <v>43573</v>
+      </c>
+      <c r="C429">
+        <v>122.198324022346</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>2</v>
+      </c>
+      <c r="B430" s="7">
+        <v>43574</v>
+      </c>
+      <c r="C430">
+        <v>121.552390149686</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>2</v>
+      </c>
+      <c r="B431" s="7">
+        <v>43575</v>
+      </c>
+      <c r="C431">
+        <v>121.24992481203</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>2</v>
+      </c>
+      <c r="B432" s="7">
+        <v>43581</v>
+      </c>
+      <c r="C432">
+        <v>122.27167876975599</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>2</v>
+      </c>
+      <c r="B433" s="7">
+        <v>43582</v>
+      </c>
+      <c r="C433">
+        <v>122.85</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>2</v>
+      </c>
+      <c r="B434" s="7">
+        <v>43583</v>
+      </c>
+      <c r="C434">
+        <v>119.92563527653201</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>2</v>
+      </c>
+      <c r="B435" s="7">
+        <v>43587</v>
+      </c>
+      <c r="C435">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>2</v>
+      </c>
+      <c r="B436" s="7">
+        <v>43590</v>
+      </c>
+      <c r="C436">
+        <v>119.19917770671501</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>2</v>
+      </c>
+      <c r="B437" s="7">
+        <v>43597</v>
+      </c>
+      <c r="C437">
+        <v>119.67366283006</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>2</v>
+      </c>
+      <c r="B438" s="7">
+        <v>43601</v>
+      </c>
+      <c r="C438">
+        <v>120.20211299954001</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>2</v>
+      </c>
+      <c r="B439" s="7">
+        <v>43603</v>
+      </c>
+      <c r="C439">
+        <v>121.101180976699</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>2</v>
+      </c>
+      <c r="B440" s="7">
+        <v>43604</v>
+      </c>
+      <c r="C440">
+        <v>120.564971751412</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>2</v>
+      </c>
+      <c r="B441" s="7">
+        <v>43608</v>
+      </c>
+      <c r="C441">
+        <v>121.05962264150899</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>2</v>
+      </c>
+      <c r="B442" s="7">
+        <v>43609</v>
+      </c>
+      <c r="C442">
+        <v>120.485</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>2</v>
+      </c>
+      <c r="B443" s="7">
+        <v>43610</v>
+      </c>
+      <c r="C443">
+        <v>120.570963238715</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>2</v>
+      </c>
+      <c r="B444" s="7">
+        <v>43611</v>
+      </c>
+      <c r="C444">
+        <v>122.32136245834801</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>2</v>
+      </c>
+      <c r="B445" s="7">
+        <v>43612</v>
+      </c>
+      <c r="C445">
+        <v>119.52038295243899</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>2</v>
+      </c>
+      <c r="B446" s="7">
+        <v>43615</v>
+      </c>
+      <c r="C446">
+        <v>121.719822109275</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>2</v>
+      </c>
+      <c r="B447" s="7">
+        <v>43616</v>
+      </c>
+      <c r="C447">
+        <v>121.94306418219399</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>2</v>
+      </c>
+      <c r="B448" s="7">
+        <v>43618</v>
+      </c>
+      <c r="C448">
+        <v>120.771976558337</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>2</v>
+      </c>
+      <c r="B449" s="7">
+        <v>43622</v>
+      </c>
+      <c r="C449">
+        <v>119.83162341581099</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>2</v>
+      </c>
+      <c r="B450" s="7">
+        <v>43623</v>
+      </c>
+      <c r="C450">
+        <v>118.080711920529</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>2</v>
+      </c>
+      <c r="B451" s="7">
+        <v>43624</v>
+      </c>
+      <c r="C451">
+        <v>119.11092985318101</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>2</v>
+      </c>
+      <c r="B452" s="7">
+        <v>43625</v>
+      </c>
+      <c r="C452">
+        <v>120.821382007822</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>2</v>
+      </c>
+      <c r="B453" s="7">
+        <v>43628</v>
+      </c>
+      <c r="C453">
+        <v>120.692610062893</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>2</v>
+      </c>
+      <c r="B454" s="7">
+        <v>43629</v>
+      </c>
+      <c r="C454">
+        <v>119.655937846836</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>2</v>
+      </c>
+      <c r="B455" s="7">
+        <v>43630</v>
+      </c>
+      <c r="C455">
+        <v>119.873455475074</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>2</v>
+      </c>
+      <c r="B456" s="7">
+        <v>43631</v>
+      </c>
+      <c r="C456">
+        <v>120.88978736148501</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>2</v>
+      </c>
+      <c r="B457" s="7">
+        <v>43632</v>
+      </c>
+      <c r="C457">
+        <v>118.492364990689</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>2</v>
+      </c>
+      <c r="B458" s="7">
+        <v>43635</v>
+      </c>
+      <c r="C458">
+        <v>123.14553686934001</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>2</v>
+      </c>
+      <c r="B459" s="7">
+        <v>43636</v>
+      </c>
+      <c r="C459">
+        <v>122.47046301224</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>2</v>
+      </c>
+      <c r="B460" s="7">
+        <v>43637</v>
+      </c>
+      <c r="C460">
+        <v>122.325447570332</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>2</v>
+      </c>
+      <c r="B461" s="7">
+        <v>43645</v>
+      </c>
+      <c r="C461">
+        <v>120.08121173058299</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>2</v>
+      </c>
+      <c r="B462" s="7">
+        <v>43646</v>
+      </c>
+      <c r="C462">
+        <v>118.950704225352</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>2</v>
+      </c>
+      <c r="B463" s="7">
+        <v>43649</v>
+      </c>
+      <c r="C463">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>2</v>
+      </c>
+      <c r="B464" s="7">
+        <v>43650</v>
+      </c>
+      <c r="C464">
+        <v>118.07507331378299</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>2</v>
+      </c>
+      <c r="B465" s="7">
+        <v>43651</v>
+      </c>
+      <c r="C465">
+        <v>121.410601265822</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>2</v>
+      </c>
+      <c r="B466" s="7">
+        <v>43652</v>
+      </c>
+      <c r="C466">
+        <v>118.883559263121</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>2</v>
+      </c>
+      <c r="B467" s="7">
+        <v>43653</v>
+      </c>
+      <c r="C467">
+        <v>121.13276231263301</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>2</v>
+      </c>
+      <c r="B468" s="7">
+        <v>43657</v>
+      </c>
+      <c r="C468">
+        <v>120.946013031337</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>2</v>
+      </c>
+      <c r="B469" s="7">
+        <v>43658</v>
+      </c>
+      <c r="C469">
+        <v>120.14016578749001</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>2</v>
+      </c>
+      <c r="B470" s="7">
+        <v>43659</v>
+      </c>
+      <c r="C470">
+        <v>120.880446148483</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>2</v>
+      </c>
+      <c r="B471" s="7">
+        <v>43660</v>
+      </c>
+      <c r="C471">
+        <v>119.381448177946</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>2</v>
+      </c>
+      <c r="B472" s="7">
+        <v>43663</v>
+      </c>
+      <c r="C472">
+        <v>119.21593291404599</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>2</v>
+      </c>
+      <c r="B473" s="7">
+        <v>43664</v>
+      </c>
+      <c r="C473">
+        <v>121.376427829698</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>2</v>
+      </c>
+      <c r="B474" s="7">
+        <v>43665</v>
+      </c>
+      <c r="C474">
+        <v>121.20884520884501</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>2</v>
+      </c>
+      <c r="B475" s="7">
+        <v>43667</v>
+      </c>
+      <c r="C475">
+        <v>120.44186046511599</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>2</v>
+      </c>
+      <c r="B476" s="7">
+        <v>43670</v>
+      </c>
+      <c r="C476">
+        <v>119.955925563173</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>2</v>
+      </c>
+      <c r="B477" s="7">
+        <v>43671</v>
+      </c>
+      <c r="C477">
+        <v>122.708933717579</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>2</v>
+      </c>
+      <c r="B478" s="7">
+        <v>43672</v>
+      </c>
+      <c r="C478">
+        <v>121.8944</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>2</v>
+      </c>
+      <c r="B479" s="7">
+        <v>43673</v>
+      </c>
+      <c r="C479">
+        <v>119.949189985272</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>2</v>
+      </c>
+      <c r="B480" s="7">
+        <v>43674</v>
+      </c>
+      <c r="C480">
+        <v>119.355790645879</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>2</v>
+      </c>
+      <c r="B481" s="7">
+        <v>43677</v>
+      </c>
+      <c r="C481">
+        <v>121.076569175156</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>2</v>
+      </c>
+      <c r="B482" s="7">
+        <v>43678</v>
+      </c>
+      <c r="C482">
+        <v>120.743790849673</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>2</v>
+      </c>
+      <c r="B483" s="7">
+        <v>43679</v>
+      </c>
+      <c r="C483">
+        <v>120.894793926247</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>2</v>
+      </c>
+      <c r="B484" s="7">
+        <v>43680</v>
+      </c>
+      <c r="C484">
+        <v>121.344146685472</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>2</v>
+      </c>
+      <c r="B485" s="7">
+        <v>43681</v>
+      </c>
+      <c r="C485">
+        <v>122.23084291187701</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>2</v>
+      </c>
+      <c r="B486" s="7">
+        <v>43684</v>
+      </c>
+      <c r="C486">
+        <v>120.35131048386999</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>2</v>
+      </c>
+      <c r="B487" s="7">
+        <v>43685</v>
+      </c>
+      <c r="C487">
+        <v>121.339836821567</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>2</v>
+      </c>
+      <c r="B488" s="7">
+        <v>43686</v>
+      </c>
+      <c r="C488">
+        <v>120.642335766423</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>2</v>
+      </c>
+      <c r="B489" s="7">
+        <v>43687</v>
+      </c>
+      <c r="C489">
+        <v>120.51662899580199</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>2</v>
+      </c>
+      <c r="B490" s="7">
+        <v>43688</v>
+      </c>
+      <c r="C490">
+        <v>119.892557651991</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>2</v>
+      </c>
+      <c r="B491" s="7">
+        <v>43691</v>
+      </c>
+      <c r="C491">
+        <v>120.645524599881</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>2</v>
+      </c>
+      <c r="B492" s="7">
+        <v>43692</v>
+      </c>
+      <c r="C492">
+        <v>122.188711762171</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>2</v>
+      </c>
+      <c r="B493" s="7">
+        <v>43693</v>
+      </c>
+      <c r="C493">
+        <v>120.993906567366</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>2</v>
+      </c>
+      <c r="B494" s="7">
+        <v>43694</v>
+      </c>
+      <c r="C494">
+        <v>120.74386920980901</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>2</v>
+      </c>
+      <c r="B495" s="7">
+        <v>43695</v>
+      </c>
+      <c r="C495">
+        <v>120.388535031847</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>2</v>
+      </c>
+      <c r="B496" s="7">
+        <v>43698</v>
+      </c>
+      <c r="C496">
+        <v>118.357894736842</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>2</v>
+      </c>
+      <c r="B497" s="7">
+        <v>43699</v>
+      </c>
+      <c r="C497">
+        <v>119.69422468354399</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>2</v>
+      </c>
+      <c r="B498" s="7">
+        <v>43700</v>
+      </c>
+      <c r="C498">
+        <v>119.198630136986</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>2</v>
+      </c>
+      <c r="B499" s="7">
+        <v>43701</v>
+      </c>
+      <c r="C499">
+        <v>118.62195727769399</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>2</v>
+      </c>
+      <c r="B500" s="7">
+        <v>43702</v>
+      </c>
+      <c r="C500">
+        <v>121.782459578637</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>2</v>
+      </c>
+      <c r="B501" s="7">
+        <v>43705</v>
+      </c>
+      <c r="C501">
+        <v>121.94389555398701</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>2</v>
+      </c>
+      <c r="B502" s="7">
+        <v>43706</v>
+      </c>
+      <c r="C502">
+        <v>121.10985626283301</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>2</v>
+      </c>
+      <c r="B503" s="7">
+        <v>43707</v>
+      </c>
+      <c r="C503">
+        <v>120.83820459290099</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>2</v>
+      </c>
+      <c r="B504" s="7">
+        <v>43708</v>
+      </c>
+      <c r="C504">
+        <v>119.686321894635</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>2</v>
+      </c>
+      <c r="B505" s="7">
+        <v>43709</v>
+      </c>
+      <c r="C505">
+        <v>120.391281785158</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>2</v>
+      </c>
+      <c r="B506" s="7">
+        <v>43710</v>
+      </c>
+      <c r="C506">
+        <v>121.494964753272</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>2</v>
+      </c>
+      <c r="B507" s="7">
+        <v>43714</v>
+      </c>
+      <c r="C507">
+        <v>119.571623465211</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>2</v>
+      </c>
+      <c r="B508" s="7">
+        <v>43715</v>
+      </c>
+      <c r="C508">
+        <v>121.580740117746</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>2</v>
+      </c>
+      <c r="B509" s="7">
+        <v>43716</v>
+      </c>
+      <c r="C509">
+        <v>119.45262522631199</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>2</v>
+      </c>
+      <c r="B510" s="7">
+        <v>43719</v>
+      </c>
+      <c r="C510">
+        <v>120.726636475916</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>2</v>
+      </c>
+      <c r="B511" s="7">
+        <v>43720</v>
+      </c>
+      <c r="C511">
+        <v>120.598823122187</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>2</v>
+      </c>
+      <c r="B512" s="7">
+        <v>43721</v>
+      </c>
+      <c r="C512">
+        <v>120.839636913767</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>2</v>
+      </c>
+      <c r="B513" s="7">
+        <v>43722</v>
+      </c>
+      <c r="C513">
+        <v>120.984598757092</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>2</v>
+      </c>
+      <c r="B514" s="7">
+        <v>43723</v>
+      </c>
+      <c r="C514">
+        <v>121.093910936079</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>2</v>
+      </c>
+      <c r="B515" s="7">
+        <v>43726</v>
+      </c>
+      <c r="C515">
+        <v>119.660563380281</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>2</v>
+      </c>
+      <c r="B516" s="7">
+        <v>43727</v>
+      </c>
+      <c r="C516">
+        <v>121.164705882352</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>2</v>
+      </c>
+      <c r="B517" s="7">
+        <v>43728</v>
+      </c>
+      <c r="C517">
+        <v>121.742312183729</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>2</v>
+      </c>
+      <c r="B518" s="7">
+        <v>43730</v>
+      </c>
+      <c r="C518">
+        <v>120.822301024428</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>2</v>
+      </c>
+      <c r="B519" s="7">
+        <v>43733</v>
+      </c>
+      <c r="C519">
+        <v>122.265499290108</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>2</v>
+      </c>
+      <c r="B520" s="7">
+        <v>43734</v>
+      </c>
+      <c r="C520">
+        <v>120.48635371179</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>2</v>
+      </c>
+      <c r="B521" s="7">
+        <v>43735</v>
+      </c>
+      <c r="C521">
+        <v>121.070880361173</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>2</v>
+      </c>
+      <c r="B522" s="7">
+        <v>43736</v>
+      </c>
+      <c r="C522">
+        <v>121.510368176047</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>2</v>
+      </c>
+      <c r="B523" s="7">
+        <v>43737</v>
+      </c>
+      <c r="C523">
+        <v>121.313024443633</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>2</v>
+      </c>
+      <c r="B524" s="7">
+        <v>43740</v>
+      </c>
+      <c r="C524">
+        <v>121.453793774319</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>2</v>
+      </c>
+      <c r="B525" s="7">
+        <v>43741</v>
+      </c>
+      <c r="C525">
+        <v>119.913520097442</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>2</v>
+      </c>
+      <c r="B526" s="7">
+        <v>43742</v>
+      </c>
+      <c r="C526">
+        <v>120.88525865422</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>2</v>
+      </c>
+      <c r="B527" s="7">
+        <v>43743</v>
+      </c>
+      <c r="C527">
+        <v>120.91087876524701</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>2</v>
+      </c>
+      <c r="B528" s="7">
+        <v>43744</v>
+      </c>
+      <c r="C528">
+        <v>120.491242702251</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>2</v>
+      </c>
+      <c r="B529" s="7">
+        <v>43748</v>
+      </c>
+      <c r="C529">
+        <v>120.16656822209001</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>2</v>
+      </c>
+      <c r="B530" s="7">
+        <v>43749</v>
+      </c>
+      <c r="C530">
+        <v>120.261047463175</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>2</v>
+      </c>
+      <c r="B531" s="7">
+        <v>43750</v>
+      </c>
+      <c r="C531">
+        <v>120.26257171785301</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>2</v>
+      </c>
+      <c r="B532" s="7">
+        <v>43751</v>
+      </c>
+      <c r="C532">
+        <v>120.14411664971099</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>2</v>
+      </c>
+      <c r="B533" s="7">
+        <v>43752</v>
+      </c>
+      <c r="C533">
+        <v>119.93125000000001</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>2</v>
+      </c>
+      <c r="B534" s="7">
+        <v>43754</v>
+      </c>
+      <c r="C534">
+        <v>120.796680497925</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>2</v>
+      </c>
+      <c r="B535" s="7">
+        <v>43756</v>
+      </c>
+      <c r="C535">
+        <v>120.97991234477701</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>2</v>
+      </c>
+      <c r="B536" s="7">
+        <v>43757</v>
+      </c>
+      <c r="C536">
+        <v>120.481392143349</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>2</v>
+      </c>
+      <c r="B537" s="7">
+        <v>43758</v>
+      </c>
+      <c r="C537">
+        <v>121.13102349661401</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>2</v>
+      </c>
+      <c r="B538" s="7">
+        <v>43761</v>
+      </c>
+      <c r="C538">
+        <v>119.712246431254</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>2</v>
+      </c>
+      <c r="B539" s="7">
+        <v>43762</v>
+      </c>
+      <c r="C539">
+        <v>120.005640612409</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>2</v>
+      </c>
+      <c r="B540" s="7">
+        <v>43763</v>
+      </c>
+      <c r="C540">
+        <v>120.22447058823499</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>2</v>
+      </c>
+      <c r="B541" s="7">
+        <v>43764</v>
+      </c>
+      <c r="C541">
+        <v>120.94292312768</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>2</v>
+      </c>
+      <c r="B542" s="7">
+        <v>43765</v>
+      </c>
+      <c r="C542">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>2</v>
+      </c>
+      <c r="B543" s="7">
+        <v>43772</v>
+      </c>
+      <c r="C543">
+        <v>120.18247456514599</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>2</v>
+      </c>
+      <c r="B544" s="7">
+        <v>43776</v>
+      </c>
+      <c r="C544">
+        <v>121.59114315139</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>2</v>
+      </c>
+      <c r="B545" s="7">
+        <v>43777</v>
+      </c>
+      <c r="C545">
+        <v>120.70038910505799</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>2</v>
+      </c>
+      <c r="B546" s="7">
+        <v>43778</v>
+      </c>
+      <c r="C546">
+        <v>120.708040593286</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>2</v>
+      </c>
+      <c r="B547" s="7">
+        <v>43779</v>
+      </c>
+      <c r="C547">
+        <v>120.21552769915</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>2</v>
+      </c>
+      <c r="B548" s="7">
+        <v>43780</v>
+      </c>
+      <c r="C548">
+        <v>121.345898778359</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>2</v>
+      </c>
+      <c r="B549" s="7">
+        <v>43783</v>
+      </c>
+      <c r="C549">
+        <v>119.539912917271</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>2</v>
+      </c>
+      <c r="B550" s="7">
+        <v>43784</v>
+      </c>
+      <c r="C550">
+        <v>120.236293683873</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>2</v>
+      </c>
+      <c r="B551" s="7">
+        <v>43785</v>
+      </c>
+      <c r="C551">
+        <v>119.961656441717</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>2</v>
+      </c>
+      <c r="B552" s="7">
+        <v>43786</v>
+      </c>
+      <c r="C552">
+        <v>120.411023160363</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>2</v>
+      </c>
+      <c r="B553" s="7">
+        <v>43789</v>
+      </c>
+      <c r="C553">
+        <v>121.192596298149</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>2</v>
+      </c>
+      <c r="B554" s="7">
+        <v>43790</v>
+      </c>
+      <c r="C554">
+        <v>122.158894645941</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>2</v>
+      </c>
+      <c r="B555" s="7">
+        <v>43791</v>
+      </c>
+      <c r="C555">
+        <v>121.38266978922699</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>2</v>
+      </c>
+      <c r="B556" s="7">
+        <v>43792</v>
+      </c>
+      <c r="C556">
+        <v>120.911919191919</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>2</v>
+      </c>
+      <c r="B557" s="7">
+        <v>43793</v>
+      </c>
+      <c r="C557">
+        <v>121.155327342747</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>2</v>
+      </c>
+      <c r="B558" s="7">
+        <v>43796</v>
+      </c>
+      <c r="C558">
+        <v>120.716506630086</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>2</v>
+      </c>
+      <c r="B559" s="7">
+        <v>43798</v>
+      </c>
+      <c r="C559">
+        <v>120.742477256822</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>2</v>
+      </c>
+      <c r="B560" s="7">
+        <v>43804</v>
+      </c>
+      <c r="C560">
+        <v>121.207540263543</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>2</v>
+      </c>
+      <c r="B561" s="7">
+        <v>43805</v>
+      </c>
+      <c r="C561">
+        <v>120.356265356265</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>2</v>
+      </c>
+      <c r="B562" s="7">
+        <v>43806</v>
+      </c>
+      <c r="C562">
+        <v>119.083017768715</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>2</v>
+      </c>
+      <c r="B563" s="7">
+        <v>43807</v>
+      </c>
+      <c r="C563">
+        <v>121.295043536503</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>2</v>
+      </c>
+      <c r="B564" s="7">
+        <v>43811</v>
+      </c>
+      <c r="C564">
+        <v>119.236245954692</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>2</v>
+      </c>
+      <c r="B565" s="7">
+        <v>43812</v>
+      </c>
+      <c r="C565">
+        <v>120.740617180984</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>2</v>
+      </c>
+      <c r="B566" s="7">
+        <v>43813</v>
+      </c>
+      <c r="C566">
+        <v>121.14324324324301</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>2</v>
+      </c>
+      <c r="B567" s="7">
+        <v>43814</v>
+      </c>
+      <c r="C567">
+        <v>120.90078418002</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>2</v>
+      </c>
+      <c r="B568" s="7">
+        <v>43827</v>
+      </c>
+      <c r="C568">
+        <v>120.38012170385301</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>2</v>
+      </c>
+      <c r="B569" s="7">
+        <v>43828</v>
+      </c>
+      <c r="C569">
+        <v>120.685920577617</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>2</v>
+      </c>
+      <c r="B570" s="7">
+        <v>43829</v>
+      </c>
+      <c r="C570">
+        <v>120.74567788898899</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>2</v>
+      </c>
+      <c r="B571" s="7">
+        <v>43830</v>
+      </c>
+      <c r="C571">
+        <v>120.199066874027</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>78</v>
+      </c>
+      <c r="B572" s="7">
+        <v>43466</v>
+      </c>
+      <c r="C572">
+        <v>115.925013390465</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>78</v>
+      </c>
+      <c r="B573" s="7">
+        <v>43469</v>
+      </c>
+      <c r="C573">
+        <v>114.802590673575</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>78</v>
+      </c>
+      <c r="B574" s="7">
+        <v>43470</v>
+      </c>
+      <c r="C574">
+        <v>116.803503010399</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>78</v>
+      </c>
+      <c r="B575" s="7">
+        <v>43471</v>
+      </c>
+      <c r="C575">
+        <v>115.380840018876</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>78</v>
+      </c>
+      <c r="B576" s="7">
+        <v>43475</v>
+      </c>
+      <c r="C576">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>78</v>
+      </c>
+      <c r="B577" s="7">
+        <v>43476</v>
+      </c>
+      <c r="C577">
+        <v>117.848115299334</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>78</v>
+      </c>
+      <c r="B578" s="7">
+        <v>43477</v>
+      </c>
+      <c r="C578">
+        <v>119.15243902439001</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>78</v>
+      </c>
+      <c r="B579" s="7">
+        <v>43478</v>
+      </c>
+      <c r="C579">
+        <v>118.399661781285</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>78</v>
+      </c>
+      <c r="B580" s="7">
+        <v>43483</v>
+      </c>
+      <c r="C580">
+        <v>117.814644351464</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>78</v>
+      </c>
+      <c r="B581" s="7">
+        <v>43484</v>
+      </c>
+      <c r="C581">
+        <v>117.431432973805</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>78</v>
+      </c>
+      <c r="B582" s="7">
+        <v>43485</v>
+      </c>
+      <c r="C582">
+        <v>117.628548895899</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>78</v>
+      </c>
+      <c r="B583" s="7">
+        <v>43490</v>
+      </c>
+      <c r="C583">
+        <v>118.008306247742</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>78</v>
+      </c>
+      <c r="B584" s="7">
+        <v>43491</v>
+      </c>
+      <c r="C584">
+        <v>117.230622617534</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>78</v>
+      </c>
+      <c r="B585" s="7">
+        <v>43492</v>
+      </c>
+      <c r="C585">
+        <v>117.12949956101799</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>78</v>
+      </c>
+      <c r="B586" s="7">
+        <v>43497</v>
+      </c>
+      <c r="C586">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>78</v>
+      </c>
+      <c r="B587" s="7">
+        <v>43498</v>
+      </c>
+      <c r="C587">
+        <v>117.62453416149</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>78</v>
+      </c>
+      <c r="B588" s="7">
+        <v>43499</v>
+      </c>
+      <c r="C588">
+        <v>116.141170683718</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>78</v>
+      </c>
+      <c r="B589" s="7">
+        <v>43503</v>
+      </c>
+      <c r="C589">
+        <v>115.76738967838401</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>78</v>
+      </c>
+      <c r="B590" s="7">
+        <v>43504</v>
+      </c>
+      <c r="C590">
+        <v>115.605871029836</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>78</v>
+      </c>
+      <c r="B591" s="7">
+        <v>43505</v>
+      </c>
+      <c r="C591">
+        <v>117.347553324968</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>78</v>
+      </c>
+      <c r="B592" s="7">
+        <v>43506</v>
+      </c>
+      <c r="C592">
+        <v>117.988146551724</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>78</v>
+      </c>
+      <c r="B593" s="7">
+        <v>43511</v>
+      </c>
+      <c r="C593">
+        <v>116.09577999051599</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>78</v>
+      </c>
+      <c r="B594" s="7">
+        <v>43512</v>
+      </c>
+      <c r="C594">
+        <v>116.166666666666</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>78</v>
+      </c>
+      <c r="B595" s="7">
+        <v>43513</v>
+      </c>
+      <c r="C595">
+        <v>116.429940666362</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>78</v>
+      </c>
+      <c r="B596" s="7">
+        <v>43514</v>
+      </c>
+      <c r="C596">
+        <v>115.58602846054301</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>78</v>
+      </c>
+      <c r="B597" s="7">
+        <v>43517</v>
+      </c>
+      <c r="C597">
+        <v>115.833768494342</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>78</v>
+      </c>
+      <c r="B598" s="7">
+        <v>43518</v>
+      </c>
+      <c r="C598">
+        <v>115.743517208863</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>78</v>
+      </c>
+      <c r="B599" s="7">
+        <v>43519</v>
+      </c>
+      <c r="C599">
+        <v>114.612802983219</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>78</v>
+      </c>
+      <c r="B600" s="7">
+        <v>43520</v>
+      </c>
+      <c r="C600">
+        <v>117.02254098360601</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>78</v>
+      </c>
+      <c r="B601" s="7">
+        <v>43524</v>
+      </c>
+      <c r="C601">
+        <v>117.954639175257</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>78</v>
+      </c>
+      <c r="B602" s="7">
+        <v>43525</v>
+      </c>
+      <c r="C602">
+        <v>115.855677655677</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>78</v>
+      </c>
+      <c r="B603" s="7">
+        <v>43526</v>
+      </c>
+      <c r="C603">
+        <v>119.063619227144</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>78</v>
+      </c>
+      <c r="B604" s="7">
+        <v>43527</v>
+      </c>
+      <c r="C604">
+        <v>115.27833333333299</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>78</v>
+      </c>
+      <c r="B605" s="7">
+        <v>43532</v>
+      </c>
+      <c r="C605">
+        <v>117.93898895990699</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>78</v>
+      </c>
+      <c r="B606" s="7">
+        <v>43533</v>
+      </c>
+      <c r="C606">
+        <v>116.50176429075501</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>78</v>
+      </c>
+      <c r="B607" s="7">
+        <v>43534</v>
+      </c>
+      <c r="C607">
+        <v>119.74879559532</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>78</v>
+      </c>
+      <c r="B608" s="7">
+        <v>43539</v>
+      </c>
+      <c r="C608">
+        <v>122.510826771653</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>78</v>
+      </c>
+      <c r="B609" s="7">
+        <v>43540</v>
+      </c>
+      <c r="C609">
+        <v>120.591206735266</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>78</v>
+      </c>
+      <c r="B610" s="7">
+        <v>43541</v>
+      </c>
+      <c r="C610">
+        <v>122.950216450216</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>78</v>
+      </c>
+      <c r="B611" s="7">
+        <v>43546</v>
+      </c>
+      <c r="C611">
+        <v>120.51153629712999</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>78</v>
+      </c>
+      <c r="B612" s="7">
+        <v>43548</v>
+      </c>
+      <c r="C612">
+        <v>121.484463276836</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>78</v>
+      </c>
+      <c r="B613" s="7">
+        <v>43553</v>
+      </c>
+      <c r="C613">
+        <v>119.93902439024301</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>78</v>
+      </c>
+      <c r="B614" s="7">
+        <v>43554</v>
+      </c>
+      <c r="C614">
+        <v>123.357179885951</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>78</v>
+      </c>
+      <c r="B615" s="7">
+        <v>43555</v>
+      </c>
+      <c r="C615">
+        <v>119.52570990023</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>78</v>
+      </c>
+      <c r="B616" s="7">
+        <v>43560</v>
+      </c>
+      <c r="C616">
+        <v>121.57714285714199</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>78</v>
+      </c>
+      <c r="B617" s="7">
+        <v>43561</v>
+      </c>
+      <c r="C617">
+        <v>122.069087688219</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>78</v>
+      </c>
+      <c r="B618" s="7">
+        <v>43562</v>
+      </c>
+      <c r="C618">
+        <v>123.412935323383</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>78</v>
+      </c>
+      <c r="B619" s="7">
+        <v>43565</v>
+      </c>
+      <c r="C619">
+        <v>122.77922077922</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>78</v>
+      </c>
+      <c r="B620" s="7">
+        <v>43566</v>
+      </c>
+      <c r="C620">
+        <v>121.725697786333</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>78</v>
+      </c>
+      <c r="B621" s="7">
+        <v>43567</v>
+      </c>
+      <c r="C621">
+        <v>122.60606060606</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>78</v>
+      </c>
+      <c r="B622" s="7">
+        <v>43575</v>
+      </c>
+      <c r="C622">
+        <v>118.56526005888099</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>78</v>
+      </c>
+      <c r="B623" s="7">
+        <v>43581</v>
+      </c>
+      <c r="C623">
+        <v>118.808864265927</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>78</v>
+      </c>
+      <c r="B624" s="7">
+        <v>43587</v>
+      </c>
+      <c r="C624">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>78</v>
+      </c>
+      <c r="B625" s="7">
+        <v>43588</v>
+      </c>
+      <c r="C625">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>78</v>
+      </c>
+      <c r="B626" s="7">
+        <v>43589</v>
+      </c>
+      <c r="C626">
+        <v>119.05654870485201</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>78</v>
+      </c>
+      <c r="B627" s="7">
+        <v>43594</v>
+      </c>
+      <c r="C627">
+        <v>121.078236130867</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>78</v>
+      </c>
+      <c r="B628" s="7">
+        <v>43595</v>
+      </c>
+      <c r="C628">
+        <v>120.164285714285</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>78</v>
+      </c>
+      <c r="B629" s="7">
+        <v>43601</v>
+      </c>
+      <c r="C629">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>78</v>
+      </c>
+      <c r="B630" s="7">
+        <v>43602</v>
+      </c>
+      <c r="C630">
+        <v>122.265996343692</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>78</v>
+      </c>
+      <c r="B631" s="7">
+        <v>43603</v>
+      </c>
+      <c r="C631">
+        <v>119.171393341553</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>78</v>
+      </c>
+      <c r="B632" s="7">
+        <v>43608</v>
+      </c>
+      <c r="C632">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>78</v>
+      </c>
+      <c r="B633" s="7">
+        <v>43622</v>
+      </c>
+      <c r="C633">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>78</v>
+      </c>
+      <c r="B634" s="7">
+        <v>43628</v>
+      </c>
+      <c r="C634">
+        <v>121.33237410071899</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>78</v>
+      </c>
+      <c r="B635" s="7">
+        <v>43629</v>
+      </c>
+      <c r="C635">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>78</v>
+      </c>
+      <c r="B636" s="7">
+        <v>43636</v>
+      </c>
+      <c r="C636">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>78</v>
+      </c>
+      <c r="B637" s="7">
+        <v>43637</v>
+      </c>
+      <c r="C637">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>78</v>
+      </c>
+      <c r="B638" s="7">
+        <v>43639</v>
+      </c>
+      <c r="C638">
+        <v>119.12408759124</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>78</v>
+      </c>
+      <c r="B639" s="7">
+        <v>43643</v>
+      </c>
+      <c r="C639">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>78</v>
+      </c>
+      <c r="B640" s="7">
+        <v>43649</v>
+      </c>
+      <c r="C640">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>78</v>
+      </c>
+      <c r="B641" s="7">
+        <v>43650</v>
+      </c>
+      <c r="C641">
+        <v>121.46949602122</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>78</v>
+      </c>
+      <c r="B642" s="7">
+        <v>43657</v>
+      </c>
+      <c r="C642">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>78</v>
+      </c>
+      <c r="B643" s="7">
+        <v>43784</v>
+      </c>
+      <c r="C643">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>78</v>
+      </c>
+      <c r="B644" s="7">
+        <v>43785</v>
+      </c>
+      <c r="C644">
+        <v>121.993849938499</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>78</v>
+      </c>
+      <c r="B645" s="7">
+        <v>43786</v>
+      </c>
+      <c r="C645">
+        <v>121.85255767301901</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>78</v>
+      </c>
+      <c r="B646" s="7">
+        <v>43789</v>
+      </c>
+      <c r="C646">
+        <v>119.492254733218</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>78</v>
+      </c>
+      <c r="B647" s="7">
+        <v>43790</v>
+      </c>
+      <c r="C647">
+        <v>121.014634146341</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>78</v>
+      </c>
+      <c r="B648" s="7">
+        <v>43791</v>
+      </c>
+      <c r="C648">
+        <v>120.05655172413699</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>78</v>
+      </c>
+      <c r="B649" s="7">
+        <v>43792</v>
+      </c>
+      <c r="C649">
+        <v>119.970857618651</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>78</v>
+      </c>
+      <c r="B650" s="7">
+        <v>43793</v>
+      </c>
+      <c r="C650">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>78</v>
+      </c>
+      <c r="B651" s="7">
+        <v>43796</v>
+      </c>
+      <c r="C651">
+        <v>120.965545529122</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>78</v>
+      </c>
+      <c r="B652" s="7">
+        <v>43798</v>
+      </c>
+      <c r="C652">
+        <v>121.02875399361</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>78</v>
+      </c>
+      <c r="B653" s="7">
+        <v>43799</v>
+      </c>
+      <c r="C653">
+        <v>120.847748391708</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>78</v>
+      </c>
+      <c r="B654" s="7">
+        <v>43800</v>
+      </c>
+      <c r="C654">
+        <v>120.871316306483</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>78</v>
+      </c>
+      <c r="B655" s="7">
+        <v>43804</v>
+      </c>
+      <c r="C655">
+        <v>121.443168771526</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>78</v>
+      </c>
+      <c r="B656" s="7">
+        <v>43805</v>
+      </c>
+      <c r="C656">
+        <v>120.863636363636</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>78</v>
+      </c>
+      <c r="B657" s="7">
+        <v>43806</v>
+      </c>
+      <c r="C657">
+        <v>121.72047832585901</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>78</v>
+      </c>
+      <c r="B658" s="7">
+        <v>43807</v>
+      </c>
+      <c r="C658">
+        <v>119.955491744436</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>78</v>
+      </c>
+      <c r="B659" s="7">
+        <v>43811</v>
+      </c>
+      <c r="C659">
+        <v>121.45854418061499</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>78</v>
+      </c>
+      <c r="B660" s="7">
+        <v>43812</v>
+      </c>
+      <c r="C660">
+        <v>121.337947494033</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>78</v>
+      </c>
+      <c r="B661" s="7">
+        <v>43813</v>
+      </c>
+      <c r="C661">
+        <v>121.329496402877</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>78</v>
+      </c>
+      <c r="B662" s="7">
+        <v>43814</v>
+      </c>
+      <c r="C662">
+        <v>120.85191956124299</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>78</v>
+      </c>
+      <c r="B663" s="7">
+        <v>43819</v>
+      </c>
+      <c r="C663">
+        <v>123.22432170542599</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>78</v>
+      </c>
+      <c r="B664" s="7">
+        <v>43820</v>
+      </c>
+      <c r="C664">
+        <v>122.252664576802</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>78</v>
+      </c>
+      <c r="B665" s="7">
+        <v>43821</v>
+      </c>
+      <c r="C665">
+        <v>121.70509125840501</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>78</v>
+      </c>
+      <c r="B666" s="7">
+        <v>43827</v>
+      </c>
+      <c r="C666">
+        <v>121.048353480616</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>78</v>
+      </c>
+      <c r="B667" s="7">
+        <v>43828</v>
+      </c>
+      <c r="C667">
+        <v>120.400098911968</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>78</v>
+      </c>
+      <c r="B668" s="7">
+        <v>43829</v>
+      </c>
+      <c r="C668">
+        <v>121.81327498176501</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>78</v>
+      </c>
+      <c r="B669" s="7">
+        <v>43830</v>
+      </c>
+      <c r="C669">
+        <v>120.863862505653</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B46 B48">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4112CB-03AD-F744-BDEC-3DF5BA296167}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1531,18 +8930,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:B51">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27ECB01-FFE4-2549-96A5-3FCE7004BEE4}">
   <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2:C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3805,12 +11204,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA42021E-E13D-A24E-8F93-9C0D70412D0F}">
   <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5193,12 +12592,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867BD951-CDC4-5749-BB0D-92AC9A3F3A7B}">
   <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A2" sqref="A2:C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7356,12 +14755,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2A3C1-1FB6-EB48-A465-269620FCBE27}">
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A2" sqref="A2:C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
